--- a/11팀_예준성_박태호_테이블정의서.xlsx
+++ b/11팀_예준성_박태호_테이블정의서.xlsx
@@ -9,22 +9,38 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8040" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8040" tabRatio="861" firstSheet="20" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="테이블정의서개요" sheetId="7" r:id="rId1"/>
-    <sheet name="1. MEMBERS" sheetId="3" r:id="rId2"/>
-    <sheet name="2. board" sheetId="5" r:id="rId3"/>
-    <sheet name="3. member_grade" sheetId="6" r:id="rId4"/>
-    <sheet name="4. qna" sheetId="8" r:id="rId5"/>
-    <sheet name="5. qna_answer" sheetId="9" r:id="rId6"/>
+    <sheet name="1. members" sheetId="3" r:id="rId2"/>
+    <sheet name="2. member_grade" sheetId="6" r:id="rId3"/>
+    <sheet name="3. board" sheetId="5" r:id="rId4"/>
+    <sheet name="4. category" sheetId="10" r:id="rId5"/>
+    <sheet name="5. qna" sheetId="8" r:id="rId6"/>
+    <sheet name="6. qna_answer" sheetId="9" r:id="rId7"/>
+    <sheet name="7. alarm" sheetId="11" r:id="rId8"/>
+    <sheet name="8.alarm_type" sheetId="12" r:id="rId9"/>
+    <sheet name="9. friendship" sheetId="13" r:id="rId10"/>
+    <sheet name="10. friendship_status" sheetId="14" r:id="rId11"/>
+    <sheet name="11. plan" sheetId="15" r:id="rId12"/>
+    <sheet name="12. plan_answer" sheetId="16" r:id="rId13"/>
+    <sheet name="13. club" sheetId="17" r:id="rId14"/>
+    <sheet name="14. club_member" sheetId="18" r:id="rId15"/>
+    <sheet name="15. club_status" sheetId="19" r:id="rId16"/>
+    <sheet name="16. file_info" sheetId="20" r:id="rId17"/>
+    <sheet name="17. sido" sheetId="21" r:id="rId18"/>
+    <sheet name="18. gugun" sheetId="22" r:id="rId19"/>
+    <sheet name="19. attraction_info" sheetId="23" r:id="rId20"/>
+    <sheet name="20. attraction_detail" sheetId="24" r:id="rId21"/>
+    <sheet name="21. attraction_description" sheetId="25" r:id="rId22"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="335">
   <si>
     <t>PK</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -571,6 +587,788 @@
   </si>
   <si>
     <t>박태호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 카테고리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떤 카테고리의 게시글인지 구분한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alarm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알람</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알람에필요한 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알람ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알람 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>from_user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보내는 사람</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to_user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>받는 사람</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>register_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알람 발생시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alarm_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알람 종류 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알람 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알람종류명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>friendship</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>친구관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>친구관계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>친구 관계 정의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관계상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>since_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>친구가된 날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT 203</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>friendship_status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원간의 관계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관계상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관계명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행계획 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행 계획</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행 계획에 필요한 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계획에 제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plan_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행지와 여행순서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행지 정보와 여행할 순서 기록.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행계획</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plan_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content_order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행계획ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행지ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행순서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">INT </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>club</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동행구하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동행을 모집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동행모집에 필요한 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total_cnt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동행ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모집글</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행계획ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모집여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모집인원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>club_member</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클럽에 속한 인원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클럽에 속한 인원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클럽 인원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>club_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클럽ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>club_status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동행 모집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동행 모집 상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>answer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>승인/거부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보내는 사람</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>받는 사람</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TINYINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MUL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MUL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 업로드 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 업로드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>article_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>save_folder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>original_file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>save_file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저장파일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원본파일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저장폴더</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sido</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시도 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시도 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시도 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sido_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sido_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시도코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시도명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gugun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구군 정보</t>
+  </si>
+  <si>
+    <t>구군 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gugun_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gugun_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sido_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시도코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구군명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구군코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>homepage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>overview</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>telname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전화번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경치설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홈페이지정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attraction_description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행지 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행지 정보</t>
+  </si>
+  <si>
+    <t>여행지 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attraction_detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행지 상세정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행지 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cat1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cat2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>created_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modified_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>booktour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대분류코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중분류코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소분류코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cat3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attraction_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content_type_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MUL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행지명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addr1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addr2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zipcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first_image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first_image2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>readcount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gugun_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>latitude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>longitude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mlevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우편번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전화번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조회수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구군코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지도확대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECIMAL(20,17)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -640,7 +1438,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -711,13 +1509,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -763,24 +1570,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -813,6 +1602,42 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1133,36 +1958,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
       <c r="F1" s="14"/>
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="17" t="s">
+      <c r="B3" s="27"/>
+      <c r="C3" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1304,6 +2129,4106 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="4"/>
+    <col min="4" max="4" width="14.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9" style="4"/>
+    <col min="7" max="7" width="14.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+    </row>
+    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="H3" s="31"/>
+    </row>
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="H4" s="31"/>
+    </row>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="29"/>
+      <c r="H5" s="31"/>
+    </row>
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>1</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="32" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>2</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="H9" s="20"/>
+    </row>
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>3</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E10" s="17">
+        <v>16</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="G10" s="17"/>
+      <c r="H10" s="20"/>
+    </row>
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>4</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E11" s="17">
+        <v>16</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="G11" s="17"/>
+      <c r="H11" s="22"/>
+    </row>
+    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>5</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="H12" s="32"/>
+    </row>
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>6</v>
+      </c>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+    </row>
+    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>7</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>8</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>9</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>10</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>11</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
+        <v>12</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
+        <v>13</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
+        <v>14</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
+        <v>15</v>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
+        <v>16</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
+        <v>17</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
+        <v>18</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
+        <v>19</v>
+      </c>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
+        <v>20</v>
+      </c>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="G5:H5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="4"/>
+    <col min="4" max="4" width="14.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9" style="4"/>
+    <col min="7" max="7" width="14.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+    </row>
+    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="H3" s="31"/>
+    </row>
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="H4" s="31"/>
+    </row>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="29"/>
+      <c r="H5" s="31"/>
+    </row>
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>1</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>2</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="E9" s="17">
+        <v>20</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="17"/>
+      <c r="H9" s="20"/>
+    </row>
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>3</v>
+      </c>
+      <c r="B10" s="24"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="20"/>
+    </row>
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>4</v>
+      </c>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="22"/>
+    </row>
+    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>5</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="32"/>
+    </row>
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>6</v>
+      </c>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+    </row>
+    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>7</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>8</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>9</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>10</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>11</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
+        <v>12</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
+        <v>13</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
+        <v>14</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
+        <v>15</v>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
+        <v>16</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
+        <v>17</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
+        <v>18</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
+        <v>19</v>
+      </c>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
+        <v>20</v>
+      </c>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="G5:H5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="4"/>
+    <col min="4" max="4" width="14.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9" style="4"/>
+    <col min="7" max="7" width="14.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+    </row>
+    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="H3" s="31"/>
+    </row>
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="H4" s="31"/>
+    </row>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="29"/>
+      <c r="H5" s="31"/>
+    </row>
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>1</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>2</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E9" s="17">
+        <v>16</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="20"/>
+    </row>
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>3</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E10" s="17">
+        <v>500</v>
+      </c>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="20"/>
+    </row>
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>4</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E11" s="17">
+        <v>45</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="G11" s="17"/>
+      <c r="H11" s="32"/>
+    </row>
+    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>5</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="32"/>
+    </row>
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>6</v>
+      </c>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+    </row>
+    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>7</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>8</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>9</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>10</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>11</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
+        <v>12</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
+        <v>13</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
+        <v>14</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
+        <v>15</v>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
+        <v>16</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
+        <v>17</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
+        <v>18</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
+        <v>19</v>
+      </c>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
+        <v>20</v>
+      </c>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="G5:H5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="4"/>
+    <col min="4" max="4" width="14.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9" style="4"/>
+    <col min="7" max="7" width="14.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+    </row>
+    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="H3" s="31"/>
+    </row>
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="H4" s="31"/>
+    </row>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="29"/>
+      <c r="H5" s="31"/>
+    </row>
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>1</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>2</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="20"/>
+    </row>
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>3</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="20"/>
+    </row>
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>4</v>
+      </c>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="22"/>
+    </row>
+    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>5</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="32"/>
+    </row>
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>6</v>
+      </c>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+    </row>
+    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>7</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>8</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>9</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>10</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>11</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
+        <v>12</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
+        <v>13</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
+        <v>14</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
+        <v>15</v>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
+        <v>16</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
+        <v>17</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
+        <v>18</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
+        <v>19</v>
+      </c>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
+        <v>20</v>
+      </c>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="G5:H5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5" style="4" customWidth="1"/>
+    <col min="2" max="3" width="12.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9" style="4"/>
+    <col min="7" max="7" width="14.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+    </row>
+    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="H3" s="31"/>
+    </row>
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="H4" s="31"/>
+    </row>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="29"/>
+      <c r="H5" s="31"/>
+    </row>
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>1</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="G8" s="34"/>
+      <c r="H8" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>2</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="E9" s="17">
+        <v>20</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="17"/>
+      <c r="H9" s="20"/>
+    </row>
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>3</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="E10" s="17">
+        <v>500</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="17"/>
+      <c r="H10" s="20"/>
+    </row>
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>4</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="E11" s="17">
+        <v>16</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="G11" s="17"/>
+      <c r="H11" s="34"/>
+    </row>
+    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>5</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="G12" s="17"/>
+      <c r="H12" s="34"/>
+    </row>
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>6</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+    </row>
+    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>7</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="E14" s="17"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>8</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="E15" s="17"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="22" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>9</v>
+      </c>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+    </row>
+    <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>10</v>
+      </c>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+    </row>
+    <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>11</v>
+      </c>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+    </row>
+    <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
+        <v>12</v>
+      </c>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+    </row>
+    <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
+        <v>13</v>
+      </c>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+    </row>
+    <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
+        <v>14</v>
+      </c>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+    </row>
+    <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
+        <v>15</v>
+      </c>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+    </row>
+    <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
+        <v>16</v>
+      </c>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+    </row>
+    <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
+        <v>17</v>
+      </c>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+    </row>
+    <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
+        <v>18</v>
+      </c>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+    </row>
+    <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
+        <v>19</v>
+      </c>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+    </row>
+    <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
+        <v>20</v>
+      </c>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="G5:H5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="4"/>
+    <col min="4" max="4" width="14.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9" style="4"/>
+    <col min="7" max="7" width="14.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+    </row>
+    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="H3" s="31"/>
+    </row>
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="H4" s="31"/>
+    </row>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="29"/>
+      <c r="H5" s="31"/>
+    </row>
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>1</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="33" t="s">
+        <v>209</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>2</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="H9" s="20"/>
+    </row>
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>3</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="H10" s="20"/>
+    </row>
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>4</v>
+      </c>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="32"/>
+    </row>
+    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>5</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="32"/>
+    </row>
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>6</v>
+      </c>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+    </row>
+    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>7</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>8</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>9</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>10</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>11</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
+        <v>12</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
+        <v>13</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
+        <v>14</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
+        <v>15</v>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
+        <v>16</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
+        <v>17</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
+        <v>18</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
+        <v>19</v>
+      </c>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
+        <v>20</v>
+      </c>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="G5:H5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="4"/>
+    <col min="4" max="4" width="14.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9" style="4"/>
+    <col min="7" max="7" width="14.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+    </row>
+    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>236</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>237</v>
+      </c>
+      <c r="H3" s="31"/>
+    </row>
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="H4" s="31"/>
+    </row>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="29"/>
+      <c r="H5" s="31"/>
+    </row>
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>1</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="33" t="s">
+        <v>209</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>2</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E9" s="17">
+        <v>16</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="H9" s="20"/>
+    </row>
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>3</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E10" s="17">
+        <v>16</v>
+      </c>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="H10" s="20"/>
+    </row>
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>4</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="22"/>
+    </row>
+    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>5</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="32"/>
+    </row>
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>6</v>
+      </c>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+    </row>
+    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>7</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>8</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>9</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>10</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>11</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
+        <v>12</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
+        <v>13</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
+        <v>14</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
+        <v>15</v>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
+        <v>16</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
+        <v>17</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
+        <v>18</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
+        <v>19</v>
+      </c>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
+        <v>20</v>
+      </c>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="G5:H5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="4"/>
+    <col min="4" max="4" width="14.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9" style="4"/>
+    <col min="7" max="7" width="14.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+    </row>
+    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="H3" s="31"/>
+    </row>
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="H4" s="31"/>
+    </row>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="29"/>
+      <c r="H5" s="31"/>
+    </row>
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>1</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="32"/>
+    </row>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>2</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="20"/>
+    </row>
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>3</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="E10" s="17">
+        <v>45</v>
+      </c>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="20"/>
+    </row>
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>4</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="E11" s="17">
+        <v>50</v>
+      </c>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="32"/>
+    </row>
+    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>5</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="E12" s="17">
+        <v>50</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="32"/>
+    </row>
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>6</v>
+      </c>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+    </row>
+    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>7</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>8</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>9</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>10</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>11</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
+        <v>12</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
+        <v>13</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
+        <v>14</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
+        <v>15</v>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
+        <v>16</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
+        <v>17</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
+        <v>18</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
+        <v>19</v>
+      </c>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
+        <v>20</v>
+      </c>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="G5:H5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="4"/>
+    <col min="4" max="4" width="14.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9" style="4"/>
+    <col min="7" max="7" width="14.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+    </row>
+    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>261</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="H3" s="31"/>
+    </row>
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>263</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="H4" s="31"/>
+    </row>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="29"/>
+      <c r="H5" s="31"/>
+    </row>
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>1</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="32"/>
+    </row>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>2</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E9" s="17">
+        <v>30</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="20"/>
+    </row>
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>3</v>
+      </c>
+      <c r="B10" s="24"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="20"/>
+    </row>
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>4</v>
+      </c>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="32"/>
+    </row>
+    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>5</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="32"/>
+    </row>
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>6</v>
+      </c>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+    </row>
+    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>7</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>8</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>9</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>10</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>11</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
+        <v>12</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
+        <v>13</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
+        <v>14</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
+        <v>15</v>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
+        <v>16</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
+        <v>17</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
+        <v>18</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
+        <v>19</v>
+      </c>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
+        <v>20</v>
+      </c>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="G5:H5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="4"/>
+    <col min="4" max="4" width="14.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9" style="4"/>
+    <col min="7" max="7" width="14.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+    </row>
+    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="H3" s="31"/>
+    </row>
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="H4" s="31"/>
+    </row>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="29"/>
+      <c r="H5" s="31"/>
+    </row>
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>1</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="33" t="s">
+        <v>209</v>
+      </c>
+      <c r="H8" s="32"/>
+    </row>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>2</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E9" s="17">
+        <v>30</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="20"/>
+    </row>
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>3</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="H10" s="20"/>
+    </row>
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>4</v>
+      </c>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="32"/>
+    </row>
+    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>5</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="32"/>
+    </row>
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>6</v>
+      </c>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+    </row>
+    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>7</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>8</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>9</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>10</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>11</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
+        <v>12</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
+        <v>13</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
+        <v>14</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
+        <v>15</v>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
+        <v>16</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
+        <v>17</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
+        <v>18</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
+        <v>19</v>
+      </c>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
+        <v>20</v>
+      </c>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="G5:H5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1328,69 +6253,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="20"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
       <c r="F3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="20"/>
+      <c r="H3" s="31"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="20"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="31"/>
       <c r="F4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="H4" s="20"/>
+      <c r="H4" s="31"/>
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="20"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="31"/>
       <c r="F5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="20"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="31"/>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
@@ -1432,225 +6357,225 @@
       <c r="A8" s="6">
         <v>1</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="18">
         <v>16</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="H8" s="25"/>
+      <c r="H8" s="19"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>2</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="18">
         <v>20</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="24"/>
-      <c r="H9" s="25"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>3</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="18">
         <v>255</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="G10" s="24"/>
-      <c r="H10" s="25"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="19"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>4</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="18">
         <v>20</v>
       </c>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="25"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>5</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="18">
         <v>45</v>
       </c>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="25"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="19"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>6</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="18">
         <v>20</v>
       </c>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="25"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="19"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>7</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="25"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="19"/>
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>8</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="25"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="19"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>9</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24" t="s">
+      <c r="E16" s="18"/>
+      <c r="F16" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="G16" s="24"/>
-      <c r="H16" s="25"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="19"/>
     </row>
     <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>10</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="18">
         <v>255</v>
       </c>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="25"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="19"/>
     </row>
     <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>11</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24" t="s">
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="H18" s="25" t="s">
+      <c r="H18" s="19" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1658,37 +6583,37 @@
       <c r="A19" s="6">
         <v>12</v>
       </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="25"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="19"/>
     </row>
     <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>13</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="25"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="19"/>
     </row>
     <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>14</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
     </row>
     <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
@@ -1775,6 +6700,1337 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="4"/>
+    <col min="4" max="4" width="14.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9" style="4"/>
+    <col min="7" max="7" width="14.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+    </row>
+    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>305</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>293</v>
+      </c>
+      <c r="H3" s="31"/>
+    </row>
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="H4" s="31"/>
+    </row>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="29"/>
+      <c r="H5" s="31"/>
+    </row>
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>1</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="34"/>
+    </row>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>2</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="H9" s="20"/>
+    </row>
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>3</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>310</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E10" s="17">
+        <v>100</v>
+      </c>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="20"/>
+    </row>
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>4</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E11" s="17">
+        <v>100</v>
+      </c>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="34"/>
+    </row>
+    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>5</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E12" s="17">
+        <v>50</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="34"/>
+    </row>
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>6</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E13" s="17">
+        <v>50</v>
+      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+    </row>
+    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>7</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E14" s="17">
+        <v>50</v>
+      </c>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+    </row>
+    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>8</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E15" s="17">
+        <v>200</v>
+      </c>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+    </row>
+    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>9</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E16" s="17">
+        <v>200</v>
+      </c>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+    </row>
+    <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>10</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="E17" s="17"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+    </row>
+    <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>11</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="E18" s="17"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="H18" s="20"/>
+    </row>
+    <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
+        <v>12</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="E19" s="17"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="H19" s="20"/>
+    </row>
+    <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
+        <v>13</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="E20" s="17"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+    </row>
+    <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
+        <v>14</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="E21" s="17"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+    </row>
+    <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
+        <v>15</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="E22" s="17">
+        <v>2</v>
+      </c>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+    </row>
+    <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
+        <v>16</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
+        <v>17</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
+        <v>18</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
+        <v>19</v>
+      </c>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
+        <v>20</v>
+      </c>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="G5:H5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="4"/>
+    <col min="4" max="4" width="14.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9" style="4"/>
+    <col min="7" max="7" width="14.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+    </row>
+    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>291</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>293</v>
+      </c>
+      <c r="H3" s="31"/>
+    </row>
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>292</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="H4" s="31"/>
+    </row>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>292</v>
+      </c>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="29"/>
+      <c r="H5" s="31"/>
+    </row>
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>1</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="33" t="s">
+        <v>209</v>
+      </c>
+      <c r="H8" s="32"/>
+    </row>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>2</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E9" s="17">
+        <v>3</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="20"/>
+    </row>
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>3</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>296</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E10" s="17">
+        <v>5</v>
+      </c>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="20"/>
+    </row>
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>4</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E11" s="17">
+        <v>9</v>
+      </c>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="32"/>
+    </row>
+    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>5</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E12" s="17">
+        <v>14</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="32"/>
+    </row>
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>6</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E13" s="17">
+        <v>14</v>
+      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+    </row>
+    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>7</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E14" s="3">
+        <v>5</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>8</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>9</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>10</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>11</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
+        <v>12</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
+        <v>13</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
+        <v>14</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
+        <v>15</v>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
+        <v>16</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
+        <v>17</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
+        <v>18</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
+        <v>19</v>
+      </c>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
+        <v>20</v>
+      </c>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="G5:H5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="4"/>
+    <col min="4" max="4" width="14.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9" style="4"/>
+    <col min="7" max="7" width="14.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+    </row>
+    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>289</v>
+      </c>
+      <c r="H3" s="31"/>
+    </row>
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="H4" s="31"/>
+    </row>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="29"/>
+      <c r="H5" s="31"/>
+    </row>
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>1</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="33" t="s">
+        <v>209</v>
+      </c>
+      <c r="H8" s="32"/>
+    </row>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>2</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E9" s="17">
+        <v>100</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="20"/>
+    </row>
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>3</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>281</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E10" s="17">
+        <v>10000</v>
+      </c>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="20"/>
+    </row>
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>4</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E11" s="17">
+        <v>45</v>
+      </c>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="32"/>
+    </row>
+    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>5</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="32"/>
+    </row>
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>6</v>
+      </c>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+    </row>
+    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>7</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>8</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>9</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>10</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>11</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
+        <v>12</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
+        <v>13</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
+        <v>14</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
+        <v>15</v>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
+        <v>16</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
+        <v>17</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
+        <v>18</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
+        <v>19</v>
+      </c>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
+        <v>20</v>
+      </c>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="G5:H5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1799,69 +8055,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="20"/>
+      <c r="B3" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
       <c r="F3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="H3" s="20"/>
+      <c r="G3" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="H3" s="31"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="20"/>
+      <c r="B4" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="31"/>
       <c r="F4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="H4" s="20"/>
+      <c r="H4" s="31"/>
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="20"/>
+      <c r="B5" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="31"/>
       <c r="F5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="20"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="31"/>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
@@ -1903,139 +8159,105 @@
       <c r="A8" s="6">
         <v>1</v>
       </c>
-      <c r="B8" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23" t="s">
+      <c r="B8" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="H8" s="23" t="s">
-        <v>73</v>
-      </c>
+      <c r="H8" s="20"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>2</v>
       </c>
-      <c r="B9" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="E9" s="23">
-        <v>16</v>
-      </c>
-      <c r="F9" s="23"/>
-      <c r="G9" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="H9" s="26"/>
+      <c r="B9" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" s="17">
+        <v>20</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>3</v>
       </c>
-      <c r="B10" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="E10" s="23">
-        <v>100</v>
-      </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="26"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>4</v>
       </c>
-      <c r="B11" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="E11" s="23">
-        <v>2000</v>
-      </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="26"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>5</v>
       </c>
-      <c r="B12" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="26"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>6</v>
       </c>
-      <c r="B13" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="G13" s="27"/>
-      <c r="H13" s="26" t="s">
-        <v>88</v>
-      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>7</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
@@ -2230,69 +8452,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="20"/>
+      <c r="B3" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
       <c r="F3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="H3" s="20"/>
+      <c r="G3" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="31"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="20"/>
+      <c r="B4" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="31"/>
       <c r="F4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="H4" s="20"/>
+      <c r="H4" s="31"/>
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="20"/>
+      <c r="B5" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="31"/>
       <c r="F5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="20"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="31"/>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
@@ -2334,105 +8556,139 @@
       <c r="A8" s="6">
         <v>1</v>
       </c>
-      <c r="B8" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23" t="s">
+      <c r="B8" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="H8" s="26"/>
+      <c r="H8" s="17" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>2</v>
       </c>
-      <c r="B9" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="E9" s="23">
-        <v>20</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
+      <c r="B9" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="17">
+        <v>16</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="H9" s="20"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>3</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
+      <c r="B10" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="17">
+        <v>100</v>
+      </c>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="20"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>4</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
+      <c r="B11" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="17">
+        <v>2000</v>
+      </c>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="20"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>5</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="B12" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="20"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>6</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+      <c r="B13" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="G13" s="21"/>
+      <c r="H13" s="20" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>7</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
@@ -2611,10 +8867,10 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:H4"/>
+      <selection activeCell="B30" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.5" style="4" customWidth="1"/>
     <col min="2" max="2" width="12.125" style="4" bestFit="1" customWidth="1"/>
@@ -2627,69 +8883,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="20"/>
+      <c r="B3" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
       <c r="F3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="H3" s="20"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="31"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="20"/>
+      <c r="B4" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="31"/>
       <c r="F4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="H4" s="20"/>
+      <c r="H4" s="31"/>
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="20"/>
+      <c r="B5" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="31"/>
       <c r="F5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="20"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="31"/>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
@@ -2731,131 +8985,528 @@
       <c r="A8" s="6">
         <v>1</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="D8" s="23" t="s">
+      <c r="C8" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="D8" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="G8" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="H8" s="29" t="s">
-        <v>72</v>
-      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="22"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>2</v>
       </c>
-      <c r="B9" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="D9" s="23" t="s">
+      <c r="B9" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="E9" s="23">
-        <v>16</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="G9" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="H9" s="26"/>
+      <c r="E9" s="17">
+        <v>20</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="17"/>
+      <c r="H9" s="20"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>3</v>
       </c>
-      <c r="B10" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="E10" s="23">
-        <v>1000</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="G10" s="23"/>
-      <c r="H10" s="26"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="20"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>4</v>
       </c>
-      <c r="B11" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="E11" s="23">
-        <v>100</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="G11" s="23"/>
-      <c r="H11" s="26"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="22"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>5</v>
       </c>
-      <c r="B12" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="G12" s="23"/>
-      <c r="H12" s="26"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="20"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>6</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+    </row>
+    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>7</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>8</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>9</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>10</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>11</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
+        <v>12</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
+        <v>13</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
+        <v>14</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
+        <v>15</v>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
+        <v>16</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
+        <v>17</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
+        <v>18</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
+        <v>19</v>
+      </c>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
+        <v>20</v>
+      </c>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="G5:H5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="4"/>
+    <col min="4" max="4" width="14.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="4" customWidth="1"/>
+    <col min="6" max="7" width="9" style="4"/>
+    <col min="8" max="8" width="12.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+    </row>
+    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="H3" s="31"/>
+    </row>
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="H4" s="31"/>
+    </row>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="29"/>
+      <c r="H5" s="31"/>
+    </row>
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>1</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>2</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E9" s="17">
+        <v>16</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="H9" s="20"/>
+    </row>
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>3</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E10" s="17">
+        <v>1000</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="G10" s="17"/>
+      <c r="H10" s="20"/>
+    </row>
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>4</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E11" s="17">
+        <v>100</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="G11" s="17"/>
+      <c r="H11" s="20"/>
+    </row>
+    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>5</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="17"/>
+      <c r="H12" s="20"/>
+    </row>
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>6</v>
+      </c>
+      <c r="B13" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="29" t="s">
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="23" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2869,6 +9520,858 @@
       <c r="E14" s="3"/>
       <c r="F14" s="5"/>
       <c r="G14" s="6"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>8</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>9</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>10</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>11</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
+        <v>12</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
+        <v>13</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
+        <v>14</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
+        <v>15</v>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
+        <v>16</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
+        <v>17</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
+        <v>18</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
+        <v>19</v>
+      </c>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
+        <v>20</v>
+      </c>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="G4:H4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="4"/>
+    <col min="4" max="4" width="14.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="4" customWidth="1"/>
+    <col min="6" max="7" width="9" style="4"/>
+    <col min="8" max="8" width="12.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+    </row>
+    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="H3" s="31"/>
+    </row>
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="H4" s="31"/>
+    </row>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="29"/>
+      <c r="H5" s="31"/>
+    </row>
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>1</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>2</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="H9" s="20"/>
+    </row>
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>3</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="E10" s="17">
+        <v>100</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="G10" s="17"/>
+      <c r="H10" s="20"/>
+    </row>
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>4</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="G11" s="17"/>
+      <c r="H11" s="22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>5</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="E12" s="17">
+        <v>16</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="H12" s="20"/>
+    </row>
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>6</v>
+      </c>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+    </row>
+    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>7</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>8</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>9</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>10</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>11</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
+        <v>12</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
+        <v>13</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
+        <v>14</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
+        <v>15</v>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
+        <v>16</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
+        <v>17</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
+        <v>18</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
+        <v>19</v>
+      </c>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
+        <v>20</v>
+      </c>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="G4:H4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="4"/>
+    <col min="4" max="4" width="14.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="4" customWidth="1"/>
+    <col min="6" max="7" width="9" style="4"/>
+    <col min="8" max="8" width="12.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+    </row>
+    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="H3" s="31"/>
+    </row>
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="H4" s="31"/>
+    </row>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="29"/>
+      <c r="H5" s="31"/>
+    </row>
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>1</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>2</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="17"/>
+      <c r="H9" s="20"/>
+    </row>
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>3</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E10" s="17">
+        <v>16</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="G10" s="17"/>
+      <c r="H10" s="20"/>
+    </row>
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>4</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E11" s="17">
+        <v>16</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="G11" s="17"/>
+      <c r="H11" s="22"/>
+    </row>
+    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>5</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>6</v>
+      </c>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+    </row>
+    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>7</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -3042,15 +10545,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.5" style="4" customWidth="1"/>
     <col min="2" max="2" width="12.125" style="4" bestFit="1" customWidth="1"/>
@@ -3063,69 +10566,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="20"/>
+      <c r="B3" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
       <c r="F3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="H3" s="20"/>
+      <c r="G3" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="H3" s="31"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="20"/>
+      <c r="B4" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="31"/>
       <c r="F4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="H4" s="20"/>
+      <c r="H4" s="31"/>
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="20"/>
+      <c r="B5" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="31"/>
       <c r="F5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="20"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="31"/>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
@@ -3167,125 +10670,91 @@
       <c r="A8" s="6">
         <v>1</v>
       </c>
-      <c r="B8" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="23" t="s">
+      <c r="B8" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="D8" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="G8" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>72</v>
-      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="32"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>2</v>
       </c>
-      <c r="B9" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="G9" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="H9" s="26"/>
+      <c r="B9" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E9" s="17">
+        <v>20</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="20"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>3</v>
       </c>
-      <c r="B10" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="E10" s="23">
-        <v>100</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="G10" s="23"/>
-      <c r="H10" s="26"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="20"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>4</v>
       </c>
-      <c r="B11" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="G11" s="23"/>
-      <c r="H11" s="28" t="s">
-        <v>122</v>
-      </c>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="32"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>5</v>
       </c>
-      <c r="B12" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="E12" s="23">
-        <v>16</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="G12" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="H12" s="26"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="32"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>6</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
